--- a/plan/WentylacjaMechanicznaRekuperacja.xlsx
+++ b/plan/WentylacjaMechanicznaRekuperacja.xlsx
@@ -8,15 +8,93 @@
   </bookViews>
   <sheets>
     <sheet name="Pytania do Rekuperatora" sheetId="1" r:id="rId1"/>
-    <sheet name="Rekuperaotry - ranking" sheetId="2" r:id="rId2"/>
+    <sheet name="Rekuperatory - ranking" sheetId="2" r:id="rId2"/>
     <sheet name="Arkusz3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Autor</author>
+  </authors>
+  <commentList>
+    <comment ref="C5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">Kotek:sterowaie tylko trójstopniowe
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+Odzysk wilgoci (czy my chcemy odzyskiwac wilgoć?)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+wydajnosć 570m3 czyli chyba dla większych domów</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="79">
   <si>
     <t xml:space="preserve">Czy GWC jest ekonomiczne? </t>
   </si>
@@ -64,9 +142,6 @@
   </si>
   <si>
     <t>Odpowiedź</t>
-  </si>
-  <si>
-    <t>Kolumna11</t>
   </si>
   <si>
     <t>Producent</t>
@@ -206,12 +281,84 @@
   <si>
     <t>7100 n</t>
   </si>
+  <si>
+    <t>Kubatura</t>
+  </si>
+  <si>
+    <t>parter</t>
+  </si>
+  <si>
+    <t>pow</t>
+  </si>
+  <si>
+    <t>kubatura</t>
+  </si>
+  <si>
+    <t>pietro</t>
+  </si>
+  <si>
+    <t>Nasza kubatura max 338m3</t>
+  </si>
+  <si>
+    <t>max 241W, od 6W</t>
+  </si>
+  <si>
+    <t>od 37dB</t>
+  </si>
+  <si>
+    <t>trójstopniowy, bez wyświetlacza</t>
+  </si>
+  <si>
+    <t>ease/luxe</t>
+  </si>
+  <si>
+    <t>39kg</t>
+  </si>
+  <si>
+    <t>EU4/EU7</t>
+  </si>
+  <si>
+    <t>Inne</t>
+  </si>
+  <si>
+    <t>Regulacja wentylatorów</t>
+  </si>
+  <si>
+    <t>Niezależne</t>
+  </si>
+  <si>
+    <t>Wydajność</t>
+  </si>
+  <si>
+    <t>365m3</t>
+  </si>
+  <si>
+    <t>zabezp.antyzamrozeniowe, zabezp.kominowe</t>
+  </si>
+  <si>
+    <t>tak, impulsowa(?)</t>
+  </si>
+  <si>
+    <t>550Standard/550Luxe</t>
+  </si>
+  <si>
+    <t>350Luxe ERC</t>
+  </si>
+  <si>
+    <t>Po co odzyskiwać wilgoć?</t>
+  </si>
+  <si>
+    <t>Komfovent</t>
+  </si>
+  <si>
+    <t>pow łącznie</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,6 +370,30 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="238"/>
@@ -248,7 +419,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -260,6 +431,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -289,8 +466,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A2:C15" totalsRowShown="0">
-  <autoFilter ref="A2:C15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A2:C17" totalsRowShown="0">
+  <autoFilter ref="A2:C17"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Lp."/>
     <tableColumn id="2" name="Pytanie" dataDxfId="0"/>
@@ -301,20 +478,28 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="B3:M25" totalsRowShown="0">
-  <autoFilter ref="B3:M25"/>
-  <tableColumns count="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="B3:O26" totalsRowShown="0">
+  <autoFilter ref="B3:O26">
+    <filterColumn colId="6"/>
+    <filterColumn colId="7"/>
+  </autoFilter>
+  <sortState ref="B4:O26">
+    <sortCondition ref="B3:B26"/>
+  </sortState>
+  <tableColumns count="14">
     <tableColumn id="1" name="Producent"/>
     <tableColumn id="2" name="Model"/>
     <tableColumn id="3" name="Cena"/>
     <tableColumn id="4" name="Sterownik"/>
     <tableColumn id="5" name="Sprawność"/>
     <tableColumn id="6" name="Zużycie prądu"/>
+    <tableColumn id="13" name="Regulacja wentylatorów"/>
+    <tableColumn id="14" name="Wydajność"/>
     <tableColumn id="7" name="Nagrzewnica wstępna"/>
     <tableColumn id="8" name="By-pass"/>
     <tableColumn id="9" name="Głośność"/>
     <tableColumn id="10" name="Filtry"/>
-    <tableColumn id="11" name="Kolumna11"/>
+    <tableColumn id="11" name="Inne"/>
     <tableColumn id="12" name="Waga"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -609,7 +794,7 @@
   <dimension ref="A2:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -735,15 +920,22 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="2:2">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" spans="1:3">
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="1:3">
       <c r="B19" s="2"/>
     </row>
   </sheetData>
@@ -757,205 +949,399 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:M8"/>
+  <dimension ref="B1:O56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="6" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="6" width="11.85546875" customWidth="1"/>
     <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="11.85546875" customWidth="1"/>
-    <col min="11" max="13" width="12.85546875" customWidth="1"/>
+    <col min="8" max="9" width="15.42578125" customWidth="1"/>
+    <col min="10" max="12" width="11.85546875" customWidth="1"/>
+    <col min="13" max="15" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13">
+    <row r="1" spans="2:15">
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
         <v>23</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>24</v>
       </c>
-      <c r="G3" t="s">
-        <v>25</v>
-      </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="I3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" t="s">
+        <v>67</v>
+      </c>
+      <c r="O3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" ht="33" customHeight="1">
+      <c r="B4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" ht="33" customHeight="1">
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0.95</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" t="s">
-        <v>36</v>
-      </c>
-      <c r="M4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" ht="31.5" customHeight="1">
+      <c r="L4" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="31.5" customHeight="1">
       <c r="B5" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>42</v>
+        <v>54</v>
+      </c>
+      <c r="E5" t="s">
+        <v>63</v>
       </c>
       <c r="F5" s="4">
         <v>0.95</v>
       </c>
       <c r="G5" t="s">
+        <v>61</v>
+      </c>
+      <c r="K5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" t="s">
+        <v>62</v>
+      </c>
+      <c r="M5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" ht="37.5" customHeight="1">
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="G10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" t="s">
+        <v>33</v>
+      </c>
+      <c r="M10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" ht="26.25" customHeight="1">
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="G11" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L11" t="s">
+        <v>33</v>
+      </c>
+      <c r="M11" t="s">
+        <v>35</v>
+      </c>
+      <c r="O11" t="s">
         <v>40</v>
       </c>
-      <c r="H5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13">
-      <c r="B6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0.91</v>
-      </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13">
-      <c r="B7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0.95</v>
-      </c>
-      <c r="G7" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13">
-      <c r="B8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" t="s">
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" t="s">
         <v>55</v>
       </c>
-      <c r="F8" s="4">
-        <v>0.95</v>
-      </c>
-      <c r="G8" t="s">
-        <v>51</v>
-      </c>
-      <c r="I8" t="s">
-        <v>30</v>
-      </c>
-      <c r="K8" t="s">
-        <v>53</v>
-      </c>
-      <c r="L8" t="s">
-        <v>52</v>
+      <c r="C34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="C35">
+        <v>3.36</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="C36">
+        <v>14.54</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="C37">
+        <v>8.34</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="C38">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="C39">
+        <v>29.54</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="C40">
+        <v>11.26</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="C41">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42">
+        <f>SUM(C35:C41)</f>
+        <v>71.650000000000006</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43">
+        <f>C42*2.7</f>
+        <v>193.45500000000004</v>
+      </c>
+      <c r="F43" t="s">
+        <v>78</v>
+      </c>
+      <c r="G43">
+        <f>C42+C52</f>
+        <v>125.41000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="C45" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="C46">
+        <v>5.52</v>
+      </c>
+      <c r="D46">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7">
+      <c r="C47">
+        <v>14.23</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7">
+      <c r="C48">
+        <v>11.22</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="C49">
+        <v>11.67</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="C50">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3">
+      <c r="C51">
+        <v>7.88</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3">
+      <c r="B52" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52">
+        <f>SUM(C46:C51)</f>
+        <v>53.760000000000005</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3">
+      <c r="B53" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53">
+        <f>C52*2.7</f>
+        <v>145.15200000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3">
+      <c r="C56">
+        <f>C53+C43</f>
+        <v>338.60700000000008</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>

--- a/plan/WentylacjaMechanicznaRekuperacja.xlsx
+++ b/plan/WentylacjaMechanicznaRekuperacja.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="11295" windowHeight="5580" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="11295" windowHeight="5580" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Pytania do Rekuperatora" sheetId="1" r:id="rId1"/>
     <sheet name="Rekuperatory - ranking" sheetId="2" r:id="rId2"/>
-    <sheet name="Arkusz3" sheetId="3" r:id="rId3"/>
+    <sheet name="Firmy" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="115">
   <si>
     <t xml:space="preserve">Czy GWC jest ekonomiczne? </t>
   </si>
@@ -353,12 +353,126 @@
   <si>
     <t>pow łącznie</t>
   </si>
+  <si>
+    <t>Firma</t>
+  </si>
+  <si>
+    <t>Przedstawiciel</t>
+  </si>
+  <si>
+    <t>Forma kontaktu</t>
+  </si>
+  <si>
+    <t>Comfortis</t>
+  </si>
+  <si>
+    <t>Konrad Czerw</t>
+  </si>
+  <si>
+    <t>mail</t>
+  </si>
+  <si>
+    <t>spotkanie</t>
+  </si>
+  <si>
+    <t>OptimumTech</t>
+  </si>
+  <si>
+    <t>Sławomir jach</t>
+  </si>
+  <si>
+    <t>Kolumna12</t>
+  </si>
+  <si>
+    <t>Danfoss</t>
+  </si>
+  <si>
+    <t>k.czerw@comfortis.pl</t>
+  </si>
+  <si>
+    <t>695-927-285</t>
+  </si>
+  <si>
+    <t>Mail</t>
+  </si>
+  <si>
+    <t>Telefon kontaktowy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - zapotrzebowanie budynku na powietrze
+ - dokumentacja projektu (umiejscowienie przewodów i średnica)</t>
+  </si>
+  <si>
+    <t>Oferuje rekuperatory producentów:</t>
+  </si>
+  <si>
+    <t>Oferta szczegóły 1: projekt</t>
+  </si>
+  <si>
+    <t>Oferta szczegóły 2: materiały, montaż</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - przewody sztywne spiro
+ - izolacja wszystkich przewodów
+ - anemostaty metalowe
+ - kompletny zestaw materiałów instalacyjnych</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - wykonanie niezbędnych przekuć
+ - podłączenie rekuperatora i sterownika
+ - uruchomienie instalacji i regulacja</t>
+  </si>
+  <si>
+    <t>Aeris, Komfovent, Mistral, Onyx</t>
+  </si>
+  <si>
+    <t>netto</t>
+  </si>
+  <si>
+    <t>brutto</t>
+  </si>
+  <si>
+    <t>Oferta (rekuperator, instalacja, podstawka, sterownik)</t>
+  </si>
+  <si>
+    <t>od 16900 brutto do 22600 brutto (oferta mailowa aktualna do 31.12)</t>
+  </si>
+  <si>
+    <t>ok. 20000 + 2000 nagrzewnica (brak pisemnej oferty)</t>
+  </si>
+  <si>
+    <t>Oferta szczegóły 3: uruchomienie</t>
+  </si>
+  <si>
+    <t>Gwaracja</t>
+  </si>
+  <si>
+    <t>24 miesiące na sprzęta i poprawne działanie instalacji</t>
+  </si>
+  <si>
+    <t>Projekt instalacji</t>
+  </si>
+  <si>
+    <t>300zł netto, zawarte w cenie całej oferty</t>
+  </si>
+  <si>
+    <t>Przedstawiciel: wrażenia</t>
+  </si>
+  <si>
+    <t>Konkretny, rzeczowy nienachalny</t>
+  </si>
+  <si>
+    <t>Dodatkowe cechy firmy</t>
+  </si>
+  <si>
+    <t>Oferują wykonanie płyty fundamentowej</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -398,6 +512,13 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -419,7 +540,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -437,11 +558,256 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Tahoma"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Tahoma"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Tahoma"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Tahoma"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Tahoma"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Tahoma"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Tahoma"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Tahoma"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Tahoma"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Tahoma"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Tahoma"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Tahoma"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Tahoma"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Tahoma"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Tahoma"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Tahoma"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Tahoma"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -470,7 +836,7 @@
   <autoFilter ref="A2:C17"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Lp."/>
-    <tableColumn id="2" name="Pytanie" dataDxfId="0"/>
+    <tableColumn id="2" name="Pytanie" dataDxfId="17"/>
     <tableColumn id="3" name="Odpowiedź"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -503,6 +869,30 @@
     <tableColumn id="12" name="Waga"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A3:O16" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A3:O16"/>
+  <tableColumns count="15">
+    <tableColumn id="1" name="Firma" dataDxfId="16"/>
+    <tableColumn id="2" name="Przedstawiciel" dataDxfId="15"/>
+    <tableColumn id="3" name="Forma kontaktu" dataDxfId="14"/>
+    <tableColumn id="4" name="Oferuje rekuperatory producentów:" dataDxfId="13"/>
+    <tableColumn id="5" name="Oferta szczegóły 1: projekt" dataDxfId="12"/>
+    <tableColumn id="6" name="Oferta szczegóły 2: materiały, montaż" dataDxfId="11"/>
+    <tableColumn id="7" name="Oferta szczegóły 3: uruchomienie" dataDxfId="10"/>
+    <tableColumn id="8" name="Oferta (rekuperator, instalacja, podstawka, sterownik)" dataDxfId="9"/>
+    <tableColumn id="9" name="Gwaracja" dataDxfId="8"/>
+    <tableColumn id="10" name="Projekt instalacji" dataDxfId="7"/>
+    <tableColumn id="11" name="Dodatkowe cechy firmy" dataDxfId="6"/>
+    <tableColumn id="12" name="Kolumna12" dataDxfId="5"/>
+    <tableColumn id="13" name="Przedstawiciel: wrażenia" dataDxfId="4"/>
+    <tableColumn id="14" name="Mail" dataDxfId="3"/>
+    <tableColumn id="15" name="Telefon kontaktowy" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -951,7 +1341,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:O56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
@@ -1348,13 +1738,258 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A3:O32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="10.5"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" style="10" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="10" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" style="10" customWidth="1"/>
+    <col min="10" max="15" width="12.85546875" style="10" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:15" s="9" customFormat="1" ht="52.5">
+      <c r="A3" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="9" customFormat="1" ht="105">
+      <c r="A4" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="9" customFormat="1" ht="31.5">
+      <c r="A5" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="9" customFormat="1"/>
+    <row r="27" spans="2:8">
+      <c r="C27" s="10">
+        <v>16178</v>
+      </c>
+      <c r="D27" s="10">
+        <v>16861</v>
+      </c>
+      <c r="E27" s="10">
+        <v>15949</v>
+      </c>
+      <c r="F27" s="10">
+        <v>14451</v>
+      </c>
+      <c r="G27" s="10">
+        <v>15753</v>
+      </c>
+      <c r="H27" s="10">
+        <v>15610</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="C28" s="10">
+        <v>350</v>
+      </c>
+      <c r="D28" s="10">
+        <v>2600</v>
+      </c>
+      <c r="E28" s="10">
+        <v>500</v>
+      </c>
+      <c r="F28" s="10">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="C29" s="10">
+        <v>420</v>
+      </c>
+      <c r="D29" s="10">
+        <v>420</v>
+      </c>
+      <c r="E29" s="10">
+        <v>1150</v>
+      </c>
+      <c r="F29" s="10">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="C30" s="10">
+        <v>1020</v>
+      </c>
+      <c r="D30" s="10">
+        <v>1020</v>
+      </c>
+      <c r="F30" s="10">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="10">
+        <f>SUM(C27:C30)</f>
+        <v>17968</v>
+      </c>
+      <c r="D31" s="10">
+        <f t="shared" ref="D31:H31" si="0">SUM(D27:D30)</f>
+        <v>20901</v>
+      </c>
+      <c r="E31" s="10">
+        <f t="shared" si="0"/>
+        <v>17599</v>
+      </c>
+      <c r="F31" s="10">
+        <f t="shared" si="0"/>
+        <v>17651</v>
+      </c>
+      <c r="G31" s="10">
+        <f t="shared" si="0"/>
+        <v>15753</v>
+      </c>
+      <c r="H31" s="10">
+        <f t="shared" si="0"/>
+        <v>15610</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" s="10">
+        <f>C31*1.08</f>
+        <v>19405.440000000002</v>
+      </c>
+      <c r="D32" s="10">
+        <f t="shared" ref="D32:H32" si="1">D31*1.08</f>
+        <v>22573.08</v>
+      </c>
+      <c r="E32" s="10">
+        <f t="shared" si="1"/>
+        <v>19006.920000000002</v>
+      </c>
+      <c r="F32" s="10">
+        <f t="shared" si="1"/>
+        <v>19063.080000000002</v>
+      </c>
+      <c r="G32" s="10">
+        <f t="shared" si="1"/>
+        <v>17013.240000000002</v>
+      </c>
+      <c r="H32" s="10">
+        <f t="shared" si="1"/>
+        <v>16858.800000000003</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/plan/WentylacjaMechanicznaRekuperacja.xlsx
+++ b/plan/WentylacjaMechanicznaRekuperacja.xlsx
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="121">
   <si>
     <t xml:space="preserve">Czy GWC jest ekonomiczne? </t>
   </si>
@@ -381,12 +381,6 @@
     <t>Sławomir jach</t>
   </si>
   <si>
-    <t>Kolumna12</t>
-  </si>
-  <si>
-    <t>Danfoss</t>
-  </si>
-  <si>
     <t>k.czerw@comfortis.pl</t>
   </si>
   <si>
@@ -438,9 +432,6 @@
     <t>od 16900 brutto do 22600 brutto (oferta mailowa aktualna do 31.12)</t>
   </si>
   <si>
-    <t>ok. 20000 + 2000 nagrzewnica (brak pisemnej oferty)</t>
-  </si>
-  <si>
     <t>Oferta szczegóły 3: uruchomienie</t>
   </si>
   <si>
@@ -459,13 +450,47 @@
     <t>Przedstawiciel: wrażenia</t>
   </si>
   <si>
-    <t>Konkretny, rzeczowy nienachalny</t>
-  </si>
-  <si>
     <t>Dodatkowe cechy firmy</t>
   </si>
   <si>
     <t>Oferują wykonanie płyty fundamentowej</t>
+  </si>
+  <si>
+    <t>b.d.</t>
+  </si>
+  <si>
+    <t>Konkretny, rzeczowy nienachalny. Jedna wpadka z wykręcaniem się od podania dB.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - rury miękkie PEHD
+ - izolacja wełniana
+ - rozkład promienisty (od bazy do każdego pomieszczenia)
+ - rozdzielacz polski, robiony na zamówienie</t>
+  </si>
+  <si>
+    <t>ok. 20000 + 2000 nagrzewnica (brak pisemnej oferty)
+ - w komplecie dwa zestawy filtrów</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - regulacja przed uruchomieniem
+ </t>
+  </si>
+  <si>
+    <t>Danfoss
+ - brak trybu 'wietrzenia', czyli wyłączenia samego nawiewu
+ - szacowanie zużycie prądu 250kWh/rok (razem z nagrzewnicą)</t>
+  </si>
+  <si>
+    <t>Konkretny, rzeczowy, nienachalny</t>
+  </si>
+  <si>
+    <t>slawomir.jach@optimumtech.pl</t>
+  </si>
+  <si>
+    <t>697-266-798</t>
+  </si>
+  <si>
+    <t>b.d. pewnie w cenieoferty</t>
   </si>
 </sst>
 </file>
@@ -568,49 +593,7 @@
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Tahoma"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Tahoma"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Tahoma"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="17">
     <dxf>
       <font>
         <strike val="0"/>
@@ -810,6 +793,34 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Tahoma"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Tahoma"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -836,7 +847,7 @@
   <autoFilter ref="A2:C17"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Lp."/>
-    <tableColumn id="2" name="Pytanie" dataDxfId="17"/>
+    <tableColumn id="2" name="Pytanie" dataDxfId="16"/>
     <tableColumn id="3" name="Odpowiedź"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -873,24 +884,23 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A3:O16" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A3:O16"/>
-  <tableColumns count="15">
-    <tableColumn id="1" name="Firma" dataDxfId="16"/>
-    <tableColumn id="2" name="Przedstawiciel" dataDxfId="15"/>
-    <tableColumn id="3" name="Forma kontaktu" dataDxfId="14"/>
-    <tableColumn id="4" name="Oferuje rekuperatory producentów:" dataDxfId="13"/>
-    <tableColumn id="5" name="Oferta szczegóły 1: projekt" dataDxfId="12"/>
-    <tableColumn id="6" name="Oferta szczegóły 2: materiały, montaż" dataDxfId="11"/>
-    <tableColumn id="7" name="Oferta szczegóły 3: uruchomienie" dataDxfId="10"/>
-    <tableColumn id="8" name="Oferta (rekuperator, instalacja, podstawka, sterownik)" dataDxfId="9"/>
-    <tableColumn id="9" name="Gwaracja" dataDxfId="8"/>
-    <tableColumn id="10" name="Projekt instalacji" dataDxfId="7"/>
-    <tableColumn id="11" name="Dodatkowe cechy firmy" dataDxfId="6"/>
-    <tableColumn id="12" name="Kolumna12" dataDxfId="5"/>
-    <tableColumn id="13" name="Przedstawiciel: wrażenia" dataDxfId="4"/>
-    <tableColumn id="14" name="Mail" dataDxfId="3"/>
-    <tableColumn id="15" name="Telefon kontaktowy" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A3:N16" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="A3:N16"/>
+  <tableColumns count="14">
+    <tableColumn id="1" name="Firma" dataDxfId="13"/>
+    <tableColumn id="2" name="Przedstawiciel" dataDxfId="12"/>
+    <tableColumn id="3" name="Forma kontaktu" dataDxfId="11"/>
+    <tableColumn id="4" name="Oferuje rekuperatory producentów:" dataDxfId="10"/>
+    <tableColumn id="5" name="Oferta szczegóły 1: projekt" dataDxfId="9"/>
+    <tableColumn id="6" name="Oferta szczegóły 2: materiały, montaż" dataDxfId="8"/>
+    <tableColumn id="7" name="Oferta szczegóły 3: uruchomienie" dataDxfId="7"/>
+    <tableColumn id="8" name="Oferta (rekuperator, instalacja, podstawka, sterownik)" dataDxfId="6"/>
+    <tableColumn id="9" name="Gwaracja" dataDxfId="5"/>
+    <tableColumn id="10" name="Projekt instalacji" dataDxfId="4"/>
+    <tableColumn id="11" name="Dodatkowe cechy firmy" dataDxfId="3"/>
+    <tableColumn id="13" name="Przedstawiciel: wrażenia" dataDxfId="2"/>
+    <tableColumn id="14" name="Mail" dataDxfId="1"/>
+    <tableColumn id="15" name="Telefon kontaktowy" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1738,28 +1748,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:O32"/>
+  <dimension ref="A3:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
   <cols>
     <col min="1" max="1" width="13.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="10" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" style="10" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" style="10" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" style="10" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" style="10" customWidth="1"/>
     <col min="8" max="8" width="14.7109375" style="10" customWidth="1"/>
     <col min="9" max="9" width="11.85546875" style="10" customWidth="1"/>
-    <col min="10" max="15" width="12.85546875" style="10" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="10"/>
+    <col min="10" max="14" width="12.85546875" style="10" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:15" s="9" customFormat="1" ht="52.5">
+    <row r="3" spans="1:14" s="9" customFormat="1" ht="52.5">
       <c r="A3" s="9" t="s">
         <v>79</v>
       </c>
@@ -1770,43 +1780,40 @@
         <v>81</v>
       </c>
       <c r="D3" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>97</v>
-      </c>
       <c r="G3" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J3" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="J3" s="9" t="s">
+      <c r="K3" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="K3" s="9" t="s">
-        <v>113</v>
-      </c>
       <c r="L3" s="9" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="9" customFormat="1" ht="105">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="9" customFormat="1" ht="105">
       <c r="A4" s="9" t="s">
         <v>82</v>
       </c>
@@ -1817,31 +1824,37 @@
         <v>84</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>110</v>
+        <v>107</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>117</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="9" customFormat="1" ht="31.5">
+        <v>88</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="9" customFormat="1" ht="105">
       <c r="A5" s="9" t="s">
         <v>86</v>
       </c>
@@ -1852,22 +1865,37 @@
         <v>85</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>89</v>
+        <v>116</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>115</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>105</v>
+        <v>114</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>120</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>114</v>
+        <v>110</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>118</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="O5" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="9" customFormat="1"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="9" customFormat="1"/>
     <row r="27" spans="2:8">
       <c r="C27" s="10">
         <v>16178</v>
@@ -1929,7 +1957,7 @@
     </row>
     <row r="31" spans="2:8">
       <c r="B31" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C31" s="10">
         <f>SUM(C27:C30)</f>
@@ -1958,7 +1986,7 @@
     </row>
     <row r="32" spans="2:8">
       <c r="B32" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C32" s="10">
         <f>C31*1.08</f>
@@ -1986,10 +2014,13 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M5" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/plan/WentylacjaMechanicznaRekuperacja.xlsx
+++ b/plan/WentylacjaMechanicznaRekuperacja.xlsx
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="132">
   <si>
     <t xml:space="preserve">Czy GWC jest ekonomiczne? </t>
   </si>
@@ -429,9 +429,6 @@
     <t>Oferta (rekuperator, instalacja, podstawka, sterownik)</t>
   </si>
   <si>
-    <t>od 16900 brutto do 22600 brutto (oferta mailowa aktualna do 31.12)</t>
-  </si>
-  <si>
     <t>Oferta szczegóły 3: uruchomienie</t>
   </si>
   <si>
@@ -491,6 +488,44 @@
   </si>
   <si>
     <t>b.d. pewnie w cenieoferty</t>
+  </si>
+  <si>
+    <t>Rekuperatory.pl</t>
+  </si>
+  <si>
+    <t>Aeris, Komfovent</t>
+  </si>
+  <si>
+    <t>w cenie</t>
+  </si>
+  <si>
+    <t>10 lat na instalację, 2 lata na rekuperator</t>
+  </si>
+  <si>
+    <t>18000 netto (GWC 10000, odzysk wilgoci 2000), nagrzewnica w rekuperatorze</t>
+  </si>
+  <si>
+    <t>od 16900 brutto do 22600 brutto (oferta mailowa aktualna do 31.12) 17600netto za Aeris Luxe</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - rury spiro, główne rury na strzyszku, min wysokość pomieszczenia 1,3m
+ - sugerują podwieszenie rekuperatora</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - regulacja (bilansu powietrzna nawiewanego i wywiewanego) przed uruchomieniem 
+ </t>
+  </si>
+  <si>
+    <t>Gaduła</t>
+  </si>
+  <si>
+    <t>m.cyganek@rekuperatory.pl</t>
+  </si>
+  <si>
+    <t>601-388-663</t>
+  </si>
+  <si>
+    <t>Michał Cyganek</t>
   </si>
 </sst>
 </file>
@@ -1750,8 +1785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -1789,22 +1824,22 @@
         <v>95</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>101</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M3" s="9" t="s">
         <v>90</v>
@@ -1836,16 +1871,16 @@
         <v>97</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M4" s="9" t="s">
         <v>88</v>
@@ -1865,37 +1900,80 @@
         <v>85</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>92</v>
       </c>
       <c r="F5" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="H5" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>114</v>
-      </c>
       <c r="I5" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="L5" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="M5" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="9" customFormat="1" ht="94.5">
+      <c r="A6" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="K5" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" s="9" customFormat="1"/>
+      <c r="B6" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
     <row r="27" spans="2:8">
       <c r="C27" s="10">
         <v>16178</v>
@@ -1921,7 +1999,7 @@
         <v>350</v>
       </c>
       <c r="D28" s="10">
-        <v>2600</v>
+        <v>800</v>
       </c>
       <c r="E28" s="10">
         <v>500</v>
@@ -1935,7 +2013,7 @@
         <v>420</v>
       </c>
       <c r="D29" s="10">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="E29" s="10">
         <v>1150</v>
@@ -1949,7 +2027,7 @@
         <v>1020</v>
       </c>
       <c r="D30" s="10">
-        <v>1020</v>
+        <v>0</v>
       </c>
       <c r="F30" s="10">
         <v>830</v>
@@ -1965,7 +2043,7 @@
       </c>
       <c r="D31" s="10">
         <f t="shared" ref="D31:H31" si="0">SUM(D27:D30)</f>
-        <v>20901</v>
+        <v>17661</v>
       </c>
       <c r="E31" s="10">
         <f t="shared" si="0"/>
@@ -1994,7 +2072,7 @@
       </c>
       <c r="D32" s="10">
         <f t="shared" ref="D32:H32" si="1">D31*1.08</f>
-        <v>22573.08</v>
+        <v>19073.88</v>
       </c>
       <c r="E32" s="10">
         <f t="shared" si="1"/>
@@ -2016,11 +2094,12 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="M5" r:id="rId1"/>
+    <hyperlink ref="M6" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>